--- a/data/georgia_census/imereti/bagdadi/age_dependency.xlsx
+++ b/data/georgia_census/imereti/bagdadi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17BE288B-A042-4713-AD62-F11E18F847F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812D7058-616F-441F-AC33-92AEC6DD6228}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{212B8C82-13C1-43AE-ADFF-9B8BA0A78B14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23C56567-79FA-4BB6-8DF1-C8C01EA8C3EC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6F6A71-0865-46C9-8C76-F4D9097CB218}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2877DFF-0351-467D-B6F5-B0F955F74EE4}"/>
 </file>